--- a/Optimal_routes/Mindemyren/data/Data_time.xlsx
+++ b/Optimal_routes/Mindemyren/data/Data_time.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bredeespelid/Desktop/Accounting/Optimal_routes/Mindemyren/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E9BD760-4ABA-D846-9CF4-31AE7E477FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A94AF37-A1F3-6A4C-B168-58F2C6BA0EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{7E74F64A-AD22-DB4C-A8C8-FC90A436E26D}"/>
+    <workbookView xWindow="380" yWindow="520" windowWidth="28040" windowHeight="16800" activeTab="1" xr2:uid="{7E74F64A-AD22-DB4C-A8C8-FC90A436E26D}"/>
   </bookViews>
   <sheets>
     <sheet name="Mandag-F" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sat" sheetId="3" r:id="rId2"/>
+    <sheet name="Sun" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="52">
+  <si>
+    <t>From Horisont to Mindemyren</t>
+  </si>
+  <si>
+    <t>End at Mindemyren</t>
+  </si>
   <si>
     <t>Day:</t>
   </si>
@@ -126,6 +133,9 @@
     <t>Friday:</t>
   </si>
   <si>
+    <t>Tid</t>
+  </si>
+  <si>
     <t>Avreise tid</t>
   </si>
   <si>
@@ -144,17 +154,53 @@
     <t xml:space="preserve">Lagunen lossetid </t>
   </si>
   <si>
-    <t>Kro</t>
-  </si>
-  <si>
     <t>Prioriteter</t>
+  </si>
+  <si>
+    <t>From Lagunen to Mindemyren</t>
+  </si>
+  <si>
+    <t>From Mindemyren to Fløttmannsplassen (Priority: 1)</t>
+  </si>
+  <si>
+    <t>From Fløttmannsplassen to Fløyen (Priority: 1)</t>
+  </si>
+  <si>
+    <t>From Fløyen to Korskirken (Priority: 2)</t>
+  </si>
+  <si>
+    <t>From Korskirken to Marken (Priority: 2)</t>
+  </si>
+  <si>
+    <t>From Marken to Festplassen (Priority: 2)</t>
+  </si>
+  <si>
+    <t>From Festplassen to VestreTorggaten (Priority: 2)</t>
+  </si>
+  <si>
+    <t>From VestreTorggaten to Christie (Priority: 3)</t>
+  </si>
+  <si>
+    <t>From Christie to Horisont (Priority: 3)</t>
+  </si>
+  <si>
+    <t>From Mindemyren to KronstadX (Priority: 2)</t>
+  </si>
+  <si>
+    <t>From KronstadX to Lagunen (Priority: 2)</t>
+  </si>
+  <si>
+    <t>Truck_1</t>
+  </si>
+  <si>
+    <t>Truck_2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -180,6 +226,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -201,12 +254,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -543,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16EB296D-C918-7D4B-933D-BA9322199811}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView zoomScale="112" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -558,27 +613,27 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H2" s="2">
         <v>0.22569444444444445</v>
@@ -586,22 +641,22 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -610,22 +665,22 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G4">
         <v>6</v>
@@ -634,22 +689,22 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G5">
         <v>10</v>
@@ -658,22 +713,22 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -681,22 +736,22 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -704,22 +759,22 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
         <v>16</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" t="s">
-        <v>14</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -727,22 +782,22 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G9">
         <v>9</v>
@@ -750,22 +805,22 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G10">
         <v>8</v>
@@ -773,22 +828,22 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G11">
         <v>20</v>
@@ -796,22 +851,22 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G12">
         <v>30</v>
@@ -819,57 +874,57 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
         <v>6</v>
-      </c>
-      <c r="D13" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -877,7 +932,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -935,18 +990,413 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF5196B2-11C7-A843-9494-7834D2171C84}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{792A3B4E-519A-0845-9129-F6354BB63801}">
+  <dimension ref="A4:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>35</v>
+    <row r="4" spans="1:1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C26">
+        <f>60*7</f>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C27">
+        <f>60*8</f>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C28">
+        <f>60*9</f>
+        <v>540</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF5196B2-11C7-A843-9494-7834D2171C84}">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C14" s="5">
+        <f>7*60</f>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C15" s="5">
+        <f>8*60</f>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C16" s="5">
+        <f>9*60</f>
+        <v>540</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C17" s="5">
+        <f>10*60</f>
+        <v>600</v>
       </c>
     </row>
   </sheetData>
